--- a/story/主线剧情/main/level_st_08-05.xlsx
+++ b/story/主线剧情/main/level_st_08-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="540">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="罗德岛干员"] 通讯接通了！！
 </t>
   </si>
@@ -1091,6 +1097,1078 @@
   </si>
   <si>
     <t xml:space="preserve">[name="エリジウム"] 「ウルサス軍の痕跡を中枢区画にて確認」
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"] Transmission went through! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Captain? Do you copy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I'm here! It's me! What's your status? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Most of us are fine. We're trapped under this building at the moment, but we found an access hatch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] We'll regroup with you if we find another exit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] We disabled the restart function. Rest assured, we've got a very defensible position. Make your way here and you won't have to worry about getting caught flat-footed. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] But...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Bluishsilver, she's...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Gah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] ...No, no, Rosmontis! Wait! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Focus on the mission... don't come for us! You promised us before we set out! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] But!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Keep your promise! We wouldn't have followed you into Chernobog without it. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Remember our talk back when we joined your team?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Listen to me, Rosmontis... we talked about how elite operators and their teams are all different.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] You can do so much. You Arts are so strong. There's not much we can do for you in a fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] But when you can't handle the burden, we'll share it with you. Just like Amiya and the other elite operators.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] But you're my team!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Calm down!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Bluishsilver's last wish...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Was that we help you grow as a warrior, not a soldier, and not a weapon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Captain, you get your job done. We'll make it out of here safe. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Listen, Rosmontis. This might be hard to do. But it's what Bluishsilver wanted. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] "You're not just an elite operator, you're Rosmontis. We all love you, not just your team, but Rhodes Island and the Infected, everyone who hates loss and destruction... we all love you."  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] So, Captain, "Think about what 'Rosmontis' would do, okay?" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Over and out. Tell Amiya hi for us. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Don't leave me. Please come back. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] We will.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"] They cut the transmission.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] What's the situation?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"] Oh, Amiya. We lost one member of the engineering team, but the rest are safe for now. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Rosmontis... We need a little more firepower. The guerrilla mortar team needs supplies. We'll ambush them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Are you okay?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Amiya, after Ace died, what did you think?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Oh!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] You don't have to tell me if you don't want to. But I want to know. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Sorry, I don't want to think too much about it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] You want to run away too?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] No, it's just not the time to face up to it. Tears are for the end, when it's all over. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] I only remember the very end, I was thinking...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] That I didn't want to let him, or any of our Rhodes Island operators, die in vain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Recon Operator, tell me where. I'm going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Reunion is totally out of control. Watch yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Because we're their enemy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Because everything is their enemy. Without an enemy to fight, sometimes people make their own. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] What are you worried about? Vanguard group, attack! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Sniper group, fall back!;Defender operators, cover them!;Casters, cease fire!", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sniper Operator"] Roger! Form up and reload! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Defender Operator"] Roger! Hold fast! Don't let them cut off the corridor!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Caster Operator"] Stop casting! Watch for friendly fire! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Herdified Sarkaz Warrior"] No further! Too scary. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Herdified Sarkaz Warrior"] Don't hit! Pain! Pain everywhere. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] That's an unpleasant infection symptom.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="They are no longer human.;......;More disturbing than the Infected mutants in Lungmen.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] If you want to ask if I worry about Rosmontis, Amiya, and their teams...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] I have to confess, there's no use worrying.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] We settled on the plan, and it all runs on a predesigned track. If you squeeze onto someone else's rail, you'll just end up derailing two trains.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"] The herd doesn't look like it's pushing up!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Stay focused! We want to pass through, not wipe them out! ", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Clear them in waves. We don't have the capacity to take on an entire battlefield. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I'm worried about Amiya.;I'm worried about Rosmontis.;I'm worried about the operation.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Amiya is a mature leader and an excellent fighter. She knows the team, the operation, and our objectives. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Rosmontis is a powerhouse and the elite operator best supported by her team. She clears her mission objectives cleanly and decisively, as long as the operation utilizes her properly. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Chernobog is in the midst of a raging storm, and given the circumstances there's not much worrying about the situation can accomplish.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] The most important thing we can do for them is accomplish our own team's strategic objectives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="That's it?! ;......;Isn't that a little cold?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pith"]  I don’t think so.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  She's through all seven training segments and passed every test given to her. There were three in which she showed particular promise. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pith"]  I have no faith in casters like this. Kalt'sit, I pride myself on my skill with Arts, and I hope to help others with it. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pith"]  That's not what Rosmontis is. Her Originium Arts art not those that serve to benefit mankind. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I want her to fight, but for one consideration.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If Rosmontis spent her whole life in the greenhouse, her outburst once reality shatters her beautiful world would be catastrophic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pith"]  If you can't do it, I will.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Pith!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pith"]  You and Amiya have too much faith in the future. One misstep and someone else's future is gone forever. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Before we make a judgment like that, we have to at least try.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pith"]  I'm worried about a future that's beyond saving.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  For now, I'll have her serve as an elite operator. Not in the future, but now.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Right now, we teach her, polish her, forge her strength into shape, hold her to the highest standards, and watch her stand firm in the face of Catastrophe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Until there is nothing in the world that can shake her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Only then will she be free of the terrible fate the Columbians set out for her. Only then can she lead her own life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  That is my goal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pith"]  I knew you'd say something like that, Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pith"]  But who's responsible for her? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I need you to work with me. I need the elite operators on this together.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  And I promise you, I stake my life on it. We will see this through.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] A war cast in warmth and kindness is a much more dangerous form of war.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] I don't want to speak of such horrible cruelties, even if my fears should never come to pass.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Amiya and Rosmontis are in the care of Rhodes Island herself, and more directly the elite operators who take responsibility for them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Further, they are the core of the squad's strategy, Dr. {@nickname}.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Trust in them, and you trust in yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] Hey, Hawk, did you see that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] How could I not?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] Shhh. Don't give us away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (Then why did you ask me? You're the one making noise.)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] (I said shhhh. You don't want the Captain to chew you out.) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (She can't talk, how would I know if she's chewing me out, or if it's just you pretending for her?) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] (I wouldn't do that.) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (I know.) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] (......)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (......)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] (I mean...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (Enough. I know you want to ask about this stuff.) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] (You've got all these weapon and armor cases, all this machinery laid out all nice. If it was just laying around I'd say I came up with a million Victorian pounds or so.)   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (I bet you two big ones that's Ursus stuff. I saw goods like this when I was smuggling around Laval. This is brand spanking new.)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (You got the Central Corps, but other units can't have had anything like this more than... Hmm, maybe five years?) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] (You think it makes any sense that Reunion could've just looted all this equipment?) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (You mean the guys who go around swinging pipes? I don't think they'd even know how to grease it.) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] (What about the guerrillas? They're ex-Ursus Army.)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (How long ago did they desert? Those big, heavy metal guys would sink if you pushed them into a lake.)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (Even if they managed to bring some logistics units with them all those years ago, they'd probably all be dead by now.) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (Think about it. With the stuff they're using now, it's a miracle they can keep their plates wiped clean.) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (Let them get their hands on these weapons? I doubt they'd even know which end to point at the enemy.)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] (You're making them sound like a bunch of idiots.) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (Ignorance and idiocy aren't the same thing. Logistics is skill as much as it's knowledge. The guerrillas aren't dumb, but the odds that they'll come across some Infected logistics officers eager to run off with them are pretty slim.)   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (Saving an Infected officer from execution... that's a tall order.) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (Look... The serial number's been filed off. Sure, a deserter might do that, but you know who else might...?) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] (You might do it if you were trying to trick somebody.) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] (It wasn't done very clean. Just looking at it I can tell what kind of file they used. Looks like somebody was short on time.)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] But the most important thing for now...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] We have to tell them, and quick. Whether or not it's useful info. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] I just hope we're not too late. Captain, should we have Radian tell Amiya's team? Or go report it direct? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] We should keep Reunion and the weird looking guys busy back here? Got it. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] Wait.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] We've got bogeys closing on our position.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] Mantra, you on it? Just make them forget what they're doing. No need to fabricate some orders or turn them into gibbering morons or whatever... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] Conserve your strength. If we run into Reunion, we'll need you to defuse the situation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] Hm? Hm. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] "Good. Be careful."  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hawk"] Right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] Okay... And it's good to send, Captain. Here. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"] "The Ursus Army is in the core city." 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"] 통신이 연결됐습니다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 팀장이야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 나야, 나! 그쪽 상황은 어때?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 모두 무사합니다. 지하 건물에 갇혀있긴 한데 문으로 통하는 통로를 찾았습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 다른 문을 찾은 뒤에 합류하겠습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 리셋 기능을 차단했으니 이쪽으로 오셔도 될 겁니다. 구역 전체가 방어용으로 사용되고 있어서 기습을 당할 염려는 없습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 그런데……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 블루이쉬실버…… 블루이쉬실버 언니가……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 큭!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] ……아, 아니에요, 로즈몬티스 씨! 잠깐만요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 임무를 속행해 주십시오…… 저흴 찾으러 오시면 안 됩니다. 나오기 전에 서명했잖습니까!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 하지만……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 약속한 이상 번복은 안 됩니다! 그렇지 않았으면 우린 로즈몬티스 씨를 따르지도 않았을 거고, 로즈몬티스 씨를 따라 체르노보그에 오지도 않았을 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 로즈몬티스 씨 팀에 합류할 때, 나눴던 이야기를 기억하고 계십니까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 팀장, 전에 그랬었죠…… 모든 정예 오퍼레이터와 그 팀은 하는 일이 모두 다르다고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 팀장에겐 할 수 있는 일이 많습니다, 아츠 또한 아주 강력하죠. 우리가 팀장을 지원할 수 있는 게 거의 없을 만큼……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 하지만 당신이 견디기 힘들어하는 것들은 우리가 함께 짊어질 겁니다. 아미야 씨나 다른 정예 오퍼레이터처럼요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 하지만 너흰 내 팀원이야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 진정하세요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 블루이쉬실버 씨가 마지막으로 남긴 이야기에 저희는 약속했습니다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 당신을 병사도 무기도 아닌, 전사로 만들겠다고요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 팀장은 팀장으로서 해야 할 일을 하십시오, 저흰 무사히 빠져나갈 테니까요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 팀장, 잘 들으십시오. 쉽지 않은 일이겠지만 블루이쉬실버 씨는 이렇게 말했습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] "넌 단순한 정예 오퍼레이터가 아니야, 넌 로즈몬티스야. 팀원들뿐만 아니라 로도스 아일랜드와 감염자, 상실과 파괴를 싫어하는 사람들조차도…… 널 사랑하게 될 거야."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 그러니까 잘 생각해 보십시오, '로즈몬티스'라면 무엇을 할지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 통신 종료하겠습니다. 아미야 씨에게 안부 전해주세요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 날 두고 가지 마. 기억해, 꼭 돌아와야 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 반드시 그러죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"] ……통신 종료.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 상황이 좀 어떤가요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"] 아, 아미야 씨, 엔지니어링 팀원 한 명이 희생됐지만 나머지 사람들은 일단 무사합니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 로즈몬티스 씨…… 정면 화력이 부족해요, 유격대의 박격포 팀에는 보급이 필요하고요. 시간차를 두고 싸워야 할 것 같아요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] ……괜찮아요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아미야…… 에이스가 죽고 나서 무슨 생각이 들었어?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 네……?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 대답하기 싫으면 안 해도 돼, 궁금한 것뿐이었으니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 죄송해요, 별로 생각하고 싶지 않아요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아미야도 도망치고 싶어?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 아뇨, 다만 지금은 다시 마주할 때가 아닌 것 같아요. 눈물은 모든 것이 끝난 뒤로 미뤄둬야겠죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 마지막만 기억해요, 확실히…… 생각난 것 같아요……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] ……그와 로도스 아일랜드 오퍼레이터들의 죽음을 헛되게 할 수는 없어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 알았어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 정찰 오퍼레이터, 방향을 알려줘. 내가 간다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 리유니온은 혼란에 빠져 있으니 부디 조심하세요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 우리가 그들의 적이라서?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 모든 것이 그들의 적이기 때문이에요. 어떤 사람들은 적이 부족할 땐 자신을 위해 적을 만들기도 하죠……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 뭘 걱정하는 거지? 뱅가드, 돌격해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="스나이퍼, 후퇴한다!;디펜더, 저들을 엄호해라!;캐스터, 공격 중지!", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="스나이퍼 오퍼레이터"] 알겠습니다! 진형을 가다듬고 탄약을 보충한다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="디펜더 오퍼레이터"] 넵! 버텨라! 통로가 끊기면 안 돼!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="캐스터 오퍼레이터"] 아츠 시전 중지! 아군에게 영향을 미치지 않도록 조심해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="가축화 된 살카즈 전사"] 앞으로 좀 그만 가! 무서워.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="가축화 된 살카즈 전사"] 그만 때려, 아파! 온몸이 아파.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 정말이지 불쾌한 상황이로군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="저 녀석들은 이미 사람이 아니야.;……;용문의 변이 감염자보다 더 불안하게 만드는 녀석들이군.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 로즈몬티스와 아미야, 그리고 그들이 이끄는 팀이 걱정되냐고 묻는다면……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 걱정해도 소용없다는 게 솔직한 내 대답이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 계획은 이미 세워져 있다. 정교하게 설계된 궤도에 네가 끼어들면 두 열차는 탈선할 수밖에 없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"] 놈들이 꼼짝도 하지 않는 것 같습니다……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="정신 바짝 차려! 우리의 목표는 적군을 섬멸하는 게 아니라 여길 통과하는 거다.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 단계적으로 해결한다, 우리에게 전장 전체를 지배할 능력은 없으니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="아미야가 걱정되는군.;로즈몬티스가 걱정되는군.;전쟁 상황이 걱정되는군.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 아미야는 노련한 리더이자 뛰어난 전사야. 팀의 운영과 우리의 작전 목표에도 익숙하지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 로즈몬티스는 뛰어난 공격력을 지닌 오퍼레이터이자, 가장 듬직한 정예 오퍼레이터다. 자신에게 맞는 운영 방식이라면 모든 임무를 합리적으로 처리할 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 체르노보그가 폭풍의 눈이 된 상황에서 우리의 미약한 관심으로는 전세를 바꿀 수 없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 그들에게 해줄 수 있는 최대의 지원은 팀의 전략 목표를 완수하는 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="그 정도면 충분하다고?!;……;너무 인정머리 없는 거 아냐?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피스"]  난 동의하지 않아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  저 녀석은 일곱 가지 훈련 과정을 모두 통과했다. 테스트마다 합격 점수 이상의 성적을 거뒀지, 세 개 과목에서는 특히 우수한 편이었어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피스"]  그런 캐스터는 믿을 수 없어, 켈시. 캐스터로서 나는 오리지늄 아츠가 자랑스러워, 그래서 오리지늄 아츠로 다른 사람을 돕는 걸 삶의 즐거움으로 삼았지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피스"]  하지만 로즈몬티스는 절대 그렇지 않아. 로즈몬티스의 오리지늄 아츠는 본질적으로 인류를 위한 종류의 것이 아니지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  로즈몬티스가 참가하기를 바랐던 이유는 딱 하나야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  로즈몬티스가 줄곧 온실 속에서만 살아왔다면 그 온실이 무너져 내리는 순간, 그녀 역시 재앙처럼 변하고 말겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피스"]  네가 못하겠다면 내가 할게.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  피스!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피스"]  너와 아미야는 그들의 미래를 맹신하고 있어. 우리가 한 발만 잘못 내디뎌도 다른 사람은 영원히 미래를 잃게 될 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  결단을 내리기 전에 적어도 뭐라도 해봐야 하는 거 아닌가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피스"]  결단을 내리지 못하는 그 미래가 나는 두렵다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  그래서 지금 그 아이를 정예 오퍼레이터로 만들려는 거다. 미래가 아닌 지금 당장.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  그 아이를 가르치고 단련시키는 거다. 갑작스러운 재앙 앞에서도 흔들리지 않도록 가장 까다로운 잣대를 들이대야 한다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  세상 그 무엇에도 그 아이가 흔들리지 않을 때까지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  그때가 되면 그 아이는 컬럼비아인에게 강요받았던 끔찍한 운명에서 벗어나 자신의 삶을 결정할 수 있게 될 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  이게, 바로 내 목적이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피스"]  그렇게 말할 줄 알았어, 켈시.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피스"]  하지만 누가 그걸 장담할 수 있지? 또 누가 그걸 할 건데?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  너와 나, 그리고 정예 오퍼레이터들 모두가 함께할 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  그리고 내가 장담한다. 내가 살아있는 한 우리는 반드시 해낼 수 있다고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 인정과 선함으로 전쟁을 미화시킨다면 전쟁은 더 위험해질 뿐이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 끔찍하고 잔인한 일을 미화하고 싶진 않다, 그 일이 결코 일어나서는 안 된다는 걸 알고 있지만……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 온 로도스 아일랜드가 아미야와 로즈몬티스를 응원할 거다. 로도스 아일랜드의 책임감 있는 오퍼레이터 모두가……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 게다가 두 사람 모두 전술의 핵심이지, {@nickname} 박사.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 두 사람은 물론, 내 자신도 믿어 의심치 않는다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] 어이 호크, 봤지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] 못 볼 리가 없잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] 조용히 해, 위치가 노출되잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (지가 방금 봤냐고 물어봐놓곤…… 그리고 지금 큰 소리로 떠들고 있는 건 너잖아.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] (쉬이~잇, 자꾸 그렇게 말하면, 팀장한테 욕 먹는다?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (팀장은 말할 수 있는 상태가 아니잖아. 날 욕하는지 아니면 다른 사람이 팀장인 척하고 날 욕하는지 네가 어떻게 알아?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] (에이~ 난 안 그래.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (아~ 그러셨어요?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] (……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] (저기……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (말하지 마, 이게 뭔지 물어보고 싶은 거잖아.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] (상자 안에는 무기와 방탄조끼, 그리고 가지런히 놓여 있는 기계가 들어있을 거야. 아무렇게나 집어넣은 게 아니라는 데 빅토리아 코인으로 수백만 건다.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (그렇다면 네가 말한 군용 장비들이 우르수스의 것이라는 데 200 걸지, 라발에서 밀수할 때 본 적 있어, 이거 전부 신형이야.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (중앙 군단 빼고 다른 부대에서 이 무기를 장착한 지는…… 5년도 채 안 됐을걸.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] (무기와 갑옷 중에서 리유니온이 빼앗아 온 건 이 중에 한 몇 퍼센트 정도 될 거 같아?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (리유니온 그 촌닭들은 여기에 기름 넣는 법도 모를걸.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] (유격대는? 그래도 유격대는 우르수스군 출신이잖아.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (유격대라…… 유격대가 소속을 떠난지 몇 년이나 됐지? 크고 무거운 고철더미들은 호수에 빠뜨리기만 해도 전부 익사할걸.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (만약 당시에 그 녀석들이 보급팀을 데리고 나왔다면, 그 보급 담당들은 진작에 전부 죽었을 거야.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (생각해 봐, 그 녀석들 지금 장비 상황 봤을 때는, 갑옷을 깨끗하게 닦을 수 있는 것만으로도 감사하게 생각해야 돼.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (그런데 그런 녀석들에게 이 무기 정리를 시킨다고? 아마 어떤 게 적한테 사용하는 건지도 잘 모를 걸.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] (그렇게 말하니까 그 녀석들이 좀 멍청하게 느껴지네.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (멍청한 것과 모르는 건 별개야. 보급하는 데는 능력 못지않게 지식도 중요하지. 유격대도 바보는 아냐, 다만 감염되어 도망쳐 나온 사람들을 상대하느라 진땀을 흘려야 했지.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (우르수스가 그들을 처리하기 전에 감염된 작업자를 구하려 하다니…… 정말 난감하겠군.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (이런…… 장비 코드를 죄다 긁어버렸네. 탈영병들이 이런 걸 좋아한다고 할지도 모르겠지만……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] (위장 공작을 할 때도 이런 수를 쓸 수 있겠지.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] (근데 수법이 너무 아마추어인데…… 나는 이 스크레치 난 것만 봐도 줄칼 모델이 무엇이고 어느 공장에서 주조했는지까지 다 안다고. 흐음…… 아마 어지간히 급했나 보다.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] 어쨌든 지금 가장 중요한 건……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] ……보고하는 거겠지. 도움이 되든 안 되든 일단 알리는 게 좋겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] 늦지 않아야 할 텐데…… 팀장, 라이디언한테 아미야에게 보고하라고 할까, 아니면 우리가 직접 가서 알릴까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] 뒤에서 리유니온과 기이한 놈들을 막아야 하는 걸까? 알았어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] 잠깐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] 신원이 확인되지 않은 인원이 우리 가까이에 있다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] 만트라, 네가 갈래? 자신들이 뭘 하고 있었는지만 잊게 해주면 돼, 명령어를 위조한다든가 괜히 사람 또 바보 만들지는 말고……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] 네 체력은 무척 소중해, 우리가 리유니온과 정면으로 부딪힌다면 위험을 해결해 줄 수 있는 건 너뿐이니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] 어? ……응.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] "좋아, 너희들도 조심해."……라고 하네.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="호크"] 알았어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] 팀장, 그럼…… 이렇게 발신한다?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="엘리시움"] "우르수스군이 코어에 와 있다"고.
 </t>
   </si>
 </sst>
@@ -1449,1090 +2527,1900 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D25" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D26" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D35" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" t="s">
+        <v>308</v>
+      </c>
+      <c r="D38" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" t="s">
+        <v>310</v>
+      </c>
+      <c r="D40" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" t="s">
+        <v>313</v>
+      </c>
+      <c r="D43" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" t="s">
+        <v>314</v>
+      </c>
+      <c r="D44" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" t="s">
+        <v>315</v>
+      </c>
+      <c r="D45" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s">
+        <v>317</v>
+      </c>
+      <c r="D47" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" t="s">
+        <v>320</v>
+      </c>
+      <c r="D50" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" t="s">
+        <v>321</v>
+      </c>
+      <c r="D51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" t="s">
+        <v>322</v>
+      </c>
+      <c r="D52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" t="s">
+        <v>323</v>
+      </c>
+      <c r="D53" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" t="s">
+        <v>324</v>
+      </c>
+      <c r="D54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" t="s">
+        <v>325</v>
+      </c>
+      <c r="D55" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" t="s">
+        <v>326</v>
+      </c>
+      <c r="D56" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" t="s">
+        <v>327</v>
+      </c>
+      <c r="D57" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" t="s">
+        <v>328</v>
+      </c>
+      <c r="D58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" t="s">
+        <v>329</v>
+      </c>
+      <c r="D59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" t="s">
+        <v>330</v>
+      </c>
+      <c r="D60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" t="s">
+        <v>331</v>
+      </c>
+      <c r="D61" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D63" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" t="s">
+        <v>334</v>
+      </c>
+      <c r="D64" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" t="s">
+        <v>335</v>
+      </c>
+      <c r="D65" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" t="s">
+        <v>336</v>
+      </c>
+      <c r="D66" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" t="s">
+        <v>338</v>
+      </c>
+      <c r="D68" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" t="s">
+        <v>339</v>
+      </c>
+      <c r="D69" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" t="s">
+        <v>340</v>
+      </c>
+      <c r="D70" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" t="s">
+        <v>341</v>
+      </c>
+      <c r="D71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" t="s">
+        <v>342</v>
+      </c>
+      <c r="D72" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" t="s">
+        <v>343</v>
+      </c>
+      <c r="D73" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D74" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" t="s">
+        <v>345</v>
+      </c>
+      <c r="D75" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" t="s">
+        <v>346</v>
+      </c>
+      <c r="D76" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" t="s">
+        <v>347</v>
+      </c>
+      <c r="D77" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" t="s">
+        <v>348</v>
+      </c>
+      <c r="D78" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" t="s">
+        <v>349</v>
+      </c>
+      <c r="D79" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" t="s">
+        <v>350</v>
+      </c>
+      <c r="D80" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" t="s">
+        <v>351</v>
+      </c>
+      <c r="D81" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" t="s">
+        <v>352</v>
+      </c>
+      <c r="D82" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" t="s">
+        <v>353</v>
+      </c>
+      <c r="D83" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" t="s">
+        <v>354</v>
+      </c>
+      <c r="D84" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" t="s">
+        <v>355</v>
+      </c>
+      <c r="D85" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" t="s">
+        <v>356</v>
+      </c>
+      <c r="D86" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>223</v>
+      </c>
+      <c r="C87" t="s">
+        <v>357</v>
+      </c>
+      <c r="D87" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>224</v>
+      </c>
+      <c r="C88" t="s">
+        <v>358</v>
+      </c>
+      <c r="D88" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>225</v>
+      </c>
+      <c r="C89" t="s">
+        <v>359</v>
+      </c>
+      <c r="D89" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" t="s">
+        <v>360</v>
+      </c>
+      <c r="D90" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" t="s">
+        <v>361</v>
+      </c>
+      <c r="D91" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>228</v>
+      </c>
+      <c r="C92" t="s">
+        <v>362</v>
+      </c>
+      <c r="D92" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>229</v>
+      </c>
+      <c r="C93" t="s">
+        <v>363</v>
+      </c>
+      <c r="D93" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>230</v>
+      </c>
+      <c r="C94" t="s">
+        <v>364</v>
+      </c>
+      <c r="D94" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>231</v>
+      </c>
+      <c r="C95" t="s">
+        <v>365</v>
+      </c>
+      <c r="D95" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" t="s">
+        <v>366</v>
+      </c>
+      <c r="D96" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>233</v>
+      </c>
+      <c r="C97" t="s">
+        <v>367</v>
+      </c>
+      <c r="D97" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" t="s">
+        <v>368</v>
+      </c>
+      <c r="D98" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" t="s">
+        <v>369</v>
+      </c>
+      <c r="D99" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" t="s">
+        <v>370</v>
+      </c>
+      <c r="D100" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" t="s">
+        <v>371</v>
+      </c>
+      <c r="D101" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" t="s">
+        <v>372</v>
+      </c>
+      <c r="D102" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>239</v>
+      </c>
+      <c r="C103" t="s">
+        <v>373</v>
+      </c>
+      <c r="D103" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104" t="s">
+        <v>374</v>
+      </c>
+      <c r="D104" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>241</v>
+      </c>
+      <c r="C105" t="s">
+        <v>375</v>
+      </c>
+      <c r="D105" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" t="s">
+        <v>376</v>
+      </c>
+      <c r="D106" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>243</v>
+      </c>
+      <c r="C107" t="s">
+        <v>377</v>
+      </c>
+      <c r="D107" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108" t="s">
+        <v>378</v>
+      </c>
+      <c r="D108" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C109" t="s">
+        <v>379</v>
+      </c>
+      <c r="D109" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>246</v>
+      </c>
+      <c r="C110" t="s">
+        <v>380</v>
+      </c>
+      <c r="D110" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>247</v>
+      </c>
+      <c r="C111" t="s">
+        <v>381</v>
+      </c>
+      <c r="D111" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>248</v>
+      </c>
+      <c r="C112" t="s">
+        <v>382</v>
+      </c>
+      <c r="D112" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>249</v>
+      </c>
+      <c r="C113" t="s">
+        <v>383</v>
+      </c>
+      <c r="D113" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" t="s">
+        <v>384</v>
+      </c>
+      <c r="D114" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>251</v>
+      </c>
+      <c r="C115" t="s">
+        <v>385</v>
+      </c>
+      <c r="D115" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" t="s">
+        <v>386</v>
+      </c>
+      <c r="D116" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" t="s">
+        <v>387</v>
+      </c>
+      <c r="D117" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>254</v>
+      </c>
+      <c r="C118" t="s">
+        <v>388</v>
+      </c>
+      <c r="D118" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" t="s">
+        <v>389</v>
+      </c>
+      <c r="D119" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" t="s">
+        <v>390</v>
+      </c>
+      <c r="D120" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>257</v>
+      </c>
+      <c r="C121" t="s">
+        <v>391</v>
+      </c>
+      <c r="D121" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>258</v>
+      </c>
+      <c r="C122" t="s">
+        <v>392</v>
+      </c>
+      <c r="D122" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>259</v>
+      </c>
+      <c r="C123" t="s">
+        <v>393</v>
+      </c>
+      <c r="D123" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>260</v>
+      </c>
+      <c r="C124" t="s">
+        <v>394</v>
+      </c>
+      <c r="D124" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" t="s">
+        <v>395</v>
+      </c>
+      <c r="D125" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>262</v>
+      </c>
+      <c r="C126" t="s">
+        <v>396</v>
+      </c>
+      <c r="D126" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>263</v>
+      </c>
+      <c r="C127" t="s">
+        <v>397</v>
+      </c>
+      <c r="D127" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>264</v>
+      </c>
+      <c r="C128" t="s">
+        <v>398</v>
+      </c>
+      <c r="D128" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>265</v>
+      </c>
+      <c r="C129" t="s">
+        <v>399</v>
+      </c>
+      <c r="D129" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>266</v>
+      </c>
+      <c r="C130" t="s">
+        <v>400</v>
+      </c>
+      <c r="D130" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>267</v>
+      </c>
+      <c r="C131" t="s">
+        <v>401</v>
+      </c>
+      <c r="D131" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>268</v>
+      </c>
+      <c r="C132" t="s">
+        <v>402</v>
+      </c>
+      <c r="D132" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>269</v>
+      </c>
+      <c r="C133" t="s">
+        <v>403</v>
+      </c>
+      <c r="D133" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="s">
+        <v>404</v>
+      </c>
+      <c r="D134" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>135</v>
-      </c>
       <c r="B135" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="C135" t="s">
+        <v>405</v>
+      </c>
+      <c r="D135" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
